--- a/model_outputs/budget_report_output.xlsx
+++ b/model_outputs/budget_report_output.xlsx
@@ -7,16 +7,19 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="BME_NSCG_LGH" sheetId="1" r:id="rId1"/>
+    <sheet name="BME_ARH" sheetId="1" r:id="rId1"/>
+    <sheet name="BME_BUH" sheetId="2" r:id="rId2"/>
+    <sheet name="BME_SMH" sheetId="3" r:id="rId3"/>
+    <sheet name="BME_CGH" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>BME_NSCG_LGH: Annual Service Delivery Costs for Net New Equipment</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
+  <si>
+    <t>BME_ARH: Annual Service Delivery Costs for Net New Equipment</t>
   </si>
   <si>
     <t>POHR</t>
@@ -61,16 +64,43 @@
     <t>Total Cost to Service</t>
   </si>
   <si>
-    <t>VCH</t>
-  </si>
-  <si>
-    <t>WHITE</t>
-  </si>
-  <si>
-    <t>LGH</t>
-  </si>
-  <si>
-    <t>INFORMATION SYSTEMS, DATA MANAGEMENT, ANESTHESIA</t>
+    <t>FHA</t>
+  </si>
+  <si>
+    <t>ARHCC</t>
+  </si>
+  <si>
+    <t>ARH</t>
+  </si>
+  <si>
+    <t>MONITORS, VIDEO</t>
+  </si>
+  <si>
+    <t>BME_BUH: Annual Service Delivery Costs for Net New Equipment</t>
+  </si>
+  <si>
+    <t>LMH_P</t>
+  </si>
+  <si>
+    <t>BHHO</t>
+  </si>
+  <si>
+    <t>BME_SMH: Annual Service Delivery Costs for Net New Equipment</t>
+  </si>
+  <si>
+    <t>JPO</t>
+  </si>
+  <si>
+    <t>CAFVC</t>
+  </si>
+  <si>
+    <t>BME_CGH: Annual Service Delivery Costs for Net New Equipment</t>
+  </si>
+  <si>
+    <t>RCH_C</t>
+  </si>
+  <si>
+    <t>CGH</t>
   </si>
 </sst>
 </file>
@@ -487,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>44.06382904457492</v>
+        <v>47.58640699797898</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -495,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>268943.580573563</v>
+        <v>593735.6001137837</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -503,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>39346.22636363636</v>
+        <v>307575.7425</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -511,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>114317.188029</v>
+        <v>220540.37508</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -519,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>115280.1661809266</v>
+        <v>65619.48253378378</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -565,19 +595,19 @@
         <v>18</v>
       </c>
       <c r="E10" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>1</v>
+        <v>3.542776494739543</v>
       </c>
       <c r="G10" s="4">
-        <v>40.535</v>
+        <v>138.5225609443162</v>
       </c>
       <c r="H10" s="4">
-        <v>84.59882904457491</v>
+        <v>307.1105651258654</v>
       </c>
       <c r="I10" s="4">
-        <v>422.9941452228746</v>
+        <v>307.1105651258654</v>
       </c>
     </row>
   </sheetData>
@@ -598,4 +628,421 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>54.16393726247094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>417502.3989112838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>209709.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>142173.8063775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>65619.48253378378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3.542776494739543</v>
+      </c>
+      <c r="G10" s="4">
+        <v>142.8801760328458</v>
+      </c>
+      <c r="H10" s="4">
+        <v>334.7708998288751</v>
+      </c>
+      <c r="I10" s="4">
+        <v>334.7708998288751</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F10:F1000">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(F10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:I1000">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(G10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I1000">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(I9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>46.56042742184552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1155583.248182784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>644836.015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>445127.7506489999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>65619.48253378378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3.542776494739543</v>
+      </c>
+      <c r="G10" s="4">
+        <v>139.7935320118039</v>
+      </c>
+      <c r="H10" s="4">
+        <v>304.7467198669448</v>
+      </c>
+      <c r="I10" s="4">
+        <v>304.7467198669448</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F10:F1000">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(F10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:I1000">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(G10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I1000">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(I9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>146.324704283904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>228211.6669187838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>135024.6375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>27567.546885</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>65619.48253378378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3.542776494739543</v>
+      </c>
+      <c r="G10" s="4">
+        <v>138.5225609443162</v>
+      </c>
+      <c r="H10" s="4">
+        <v>656.9182838810458</v>
+      </c>
+      <c r="I10" s="4">
+        <v>656.9182838810458</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F10:F1000">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(F10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:I1000">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(G10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I1000">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(I9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/model_outputs/budget_report_output.xlsx
+++ b/model_outputs/budget_report_output.xlsx
@@ -1,38 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjc92\Downloads\biomed-service-delivery-cost-model\model_outputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BCA171-67BA-4240-B7D0-CF9476894788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="BME_DI_VGH" sheetId="1" r:id="rId1"/>
+    <sheet name="BME_BCCW" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
-  <si>
-    <t>BME_DI_VGH: Annual Service Delivery Costs for Net New Equipment</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>BME_BCCW: Annual Service Delivery Costs for Net New Equipment</t>
   </si>
   <si>
     <t>OH Information</t>
@@ -92,38 +76,26 @@
     <t>Total Cost to Service</t>
   </si>
   <si>
-    <t>VCH</t>
-  </si>
-  <si>
-    <t>IMAG</t>
-  </si>
-  <si>
-    <t>RH</t>
-  </si>
-  <si>
-    <t>CRIR348CL</t>
-  </si>
-  <si>
-    <t>WORKSTATIONS, COMPUTED RADIOGRAPHY</t>
-  </si>
-  <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>08257869</t>
-  </si>
-  <si>
-    <t>PROBES, ULTRASONIC, GENERAL</t>
+    <t>PHSA</t>
+  </si>
+  <si>
+    <t>BCCW</t>
+  </si>
+  <si>
+    <t>BCCH</t>
+  </si>
+  <si>
+    <t>ELECTRIC SIGNAL AMPLIFIERS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,16 +171,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF538DD5"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="$#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -220,28 +188,8 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -288,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,27 +268,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,24 +302,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -565,14 +477,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="4" width="15.7109375" customWidth="1"/>
@@ -583,70 +493,70 @@
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>1881260.1733763141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1336293.590552836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>1538231.5349999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>561058.118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>253421.19647459991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>690897.0139690499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>89607.441901714279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84338.45858378569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>188.3279048516323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51.30578674124474</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>42.79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>39.80729857819905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -681,7 +591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
@@ -691,96 +601,48 @@
       <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="4">
+        <v>12378</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="4">
-        <v>24.4</v>
+        <v>2.046341463414635</v>
       </c>
       <c r="H15" s="4">
         <f>B10*G15</f>
-        <v>4595.2008783798274</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
         <f>B11*G15</f>
-        <v>1044.076</v>
+        <v>0</v>
       </c>
       <c r="J15" s="4">
         <f>SUM(H15, I15)</f>
-        <v>5639.2768783798274</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4">
         <f>J15 * F15</f>
-        <v>5639.2768783798274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>3.6</v>
-      </c>
-      <c r="H16" s="4">
-        <f>B10*G16</f>
-        <v>677.98045746587627</v>
-      </c>
-      <c r="I16" s="4">
-        <f>B11*G16</f>
-        <v>154.04400000000001</v>
-      </c>
-      <c r="J16" s="4">
-        <f>SUM(H16, I16)</f>
-        <v>832.02445746587625</v>
-      </c>
-      <c r="K16" s="4">
-        <f>J16 * F16</f>
-        <v>832.02445746587625</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G10:G1000">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="2">
-      <formula>LEN(TRIM(G10))&gt;0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(G10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:K1000">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
-      <formula>LEN(TRIM(H10))&gt;0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(H10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:K1000">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
-      <formula>LEN(TRIM(K9))&gt;0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(K9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_outputs/budget_report_output.xlsx
+++ b/model_outputs/budget_report_output.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="BME_BCCW" sheetId="1" r:id="rId1"/>
+    <sheet name="BME_DI_BCCW" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>BME_BCCW: Annual Service Delivery Costs for Net New Equipment</t>
   </si>
@@ -86,6 +87,24 @@
   </si>
   <si>
     <t>ELECTRIC SIGNAL AMPLIFIERS</t>
+  </si>
+  <si>
+    <t>BME_DI_BCCW: Annual Service Delivery Costs for Net New Equipment</t>
+  </si>
+  <si>
+    <t>WO Cost per Asset</t>
+  </si>
+  <si>
+    <t>Service Contract Cost per Asset</t>
+  </si>
+  <si>
+    <t>IMAG</t>
+  </si>
+  <si>
+    <t>ANESTHESIA UNITS</t>
+  </si>
+  <si>
+    <t>ANESTHESIA UNIT VAPORIZERS</t>
   </si>
 </sst>
 </file>
@@ -478,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -626,24 +645,305 @@
         <v>0</v>
       </c>
       <c r="K15" s="4">
-        <f>J15 * F15</f>
+        <f>J15*F15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4">
+        <v>12379</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2.046341463414635</v>
+      </c>
+      <c r="H16" s="4">
+        <f>B10*G16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f>B11*G16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f>SUM(H16, I16)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f>J16*F16</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G10:G1000">
+  <conditionalFormatting sqref="G10:G10000">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(G10))&gt;0</formula>
     </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="1" priority="5">
+      <formula>LEN(TRIM(G10))&gt;0</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:K1000">
+  <conditionalFormatting sqref="H10:K10000">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(H10))&gt;0</formula>
     </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
+      <formula>LEN(TRIM(H10))&gt;0</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:K1000">
+  <conditionalFormatting sqref="K9:K10000">
     <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(K9))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="2" priority="6">
+      <formula>LEN(TRIM(K9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="70.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="9" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>450174.9552548606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>307598.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>58238.14667107498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>84338.45858378569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>220.0817189303593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>41.64764705882352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>53.36049107142857</v>
+      </c>
+      <c r="H15" s="4">
+        <f>B10*G15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f>B11*G15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f>SUM(H15, I15, J15)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <f>K15*F15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>4.949354005167959</v>
+      </c>
+      <c r="H16" s="4">
+        <f>B10*G16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f>B11*G16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f>SUM(H16, I16, J16)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <f>K16*F16</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G10:G10000">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(G10))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="1" priority="5">
+      <formula>LEN(TRIM(G10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:L10000">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(H10))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
+      <formula>LEN(TRIM(H10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:L10000">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(L9))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="2" priority="6">
+      <formula>LEN(TRIM(L9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model_outputs/budget_report_output.xlsx
+++ b/model_outputs/budget_report_output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
   <si>
     <t>BME_BCCW: Annual Service Delivery Costs for Net New Equipment</t>
   </si>
@@ -689,7 +689,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G10:G10000">
+  <conditionalFormatting sqref="G10:G1000000">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(G10))&gt;0</formula>
     </cfRule>
@@ -697,7 +697,7 @@
       <formula>LEN(TRIM(G10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:K10000">
+  <conditionalFormatting sqref="H10:K1000000">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(H10))&gt;0</formula>
     </cfRule>
@@ -705,7 +705,7 @@
       <formula>LEN(TRIM(H10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:K10000">
+  <conditionalFormatting sqref="K9:K1000000">
     <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(K9))&gt;0</formula>
     </cfRule>
@@ -719,7 +719,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -921,28 +921,79 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>4.949354005167959</v>
+      </c>
+      <c r="H17" s="4">
+        <f>B10*G17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f>B11*G17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <f>SUM(H17, I17, J17)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <f>K17*F17</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G10:G10000">
+  <conditionalFormatting sqref="G10:G1000000">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(G10))&gt;0</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(G10))&gt;0</formula>
     </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="1" priority="8">
+      <formula>LEN(TRIM(G10))&gt;0</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:L10000">
+  <conditionalFormatting sqref="H10:L1000000">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(H10))&gt;0</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="0" priority="4">
       <formula>LEN(TRIM(H10))&gt;0</formula>
     </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="7">
+      <formula>LEN(TRIM(H10))&gt;0</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9:L10000">
+  <conditionalFormatting sqref="L9:L1000000">
     <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(L9))&gt;0</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="2" priority="6">
+      <formula>LEN(TRIM(L9))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="2" priority="9">
       <formula>LEN(TRIM(L9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
